--- a/biology/Botanique/Square_Claude-Charpentier/Square_Claude-Charpentier.xlsx
+++ b/biology/Botanique/Square_Claude-Charpentier/Square_Claude-Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Claude-Charpentier (ex-square du Mont-Cenis) est un square situé à Montmartre, dans le 18e arrondissement de Paris (France).
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par les 16-18, rue du Mont-Cenis.
 Il est desservi par la ligne 12 à la station Lamarck - Caulaincourt.
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin entoure le Château d'eau de la rue du Mont-Cenis, également dénommé Château d'eau de Montmartre.
 </t>
@@ -575,9 +591,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Charpentier (1909-1995) est un architecte urbaniste qui s’appliqua à la sauvegarde de nombreux secteurs parisiens, notamment le Marais, Montmartre, les rives de la Seine, les Halles et le quartier Maubert. Il restaura également le Bateau-Lavoir, la célèbre cité d’artistes dévastée par un incendie en 1970, et construisit le Conservatoire de musique du 18e. Il repose à Montmartre au cimetière Saint-Vincent[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Charpentier (1909-1995) est un architecte urbaniste qui s’appliqua à la sauvegarde de nombreux secteurs parisiens, notamment le Marais, Montmartre, les rives de la Seine, les Halles et le quartier Maubert. Il restaura également le Bateau-Lavoir, la célèbre cité d’artistes dévastée par un incendie en 1970, et construisit le Conservatoire de musique du 18e. Il repose à Montmartre au cimetière Saint-Vincent.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'appelait anciennement « square du Mont-Cenis ».
 </t>
